--- a/Bin/Exp/Manual.xlsx
+++ b/Bin/Exp/Manual.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7800" windowWidth="17256" windowHeight="5904"/>
+    <workbookView xWindow="0" yWindow="8400" windowWidth="17256" windowHeight="5904"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter Demonstration" sheetId="4" r:id="rId1"/>
     <sheet name="Appendix" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Parameter Demonstration'!$A$1:$H$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Parameter Demonstration'!$A$1:$H$49</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="204">
   <si>
     <t>SYSTEM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -787,6 +787,26 @@
   </si>
   <si>
     <t>NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safe Z Axis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALL AXIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[$TOPO],+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAN1/PAN1,2,3/PAN1,3,UDM1.0,2.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,7 +814,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,8 +848,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -842,8 +871,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1198,13 +1251,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1217,128 +1344,194 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1614,10 +1807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="E26" sqref="B26:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1626,7 +1819,7 @@
     <col min="2" max="2" width="36.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.77734375" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
@@ -1644,1114 +1837,1136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="45">
+        <v>4</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B5" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C5" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="14" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F5" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G5" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="15">
+      <c r="D6" s="4"/>
+      <c r="E6" s="13">
         <v>0</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F6" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G6" s="47" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="15">
-        <v>4</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="G5" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="15">
-        <v>1</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="15">
-        <v>1</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="20"/>
+      <c r="F7" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>62</v>
+      <c r="A8" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="16">
-        <v>30</v>
-      </c>
-      <c r="F8" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="G8" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="16">
-        <v>10</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="A9" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="13">
+        <v>5</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E10" s="16">
-        <v>30</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>92</v>
-      </c>
+      <c r="A10" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
+      <c r="F10" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="15">
-        <v>20</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>87</v>
-      </c>
+      <c r="A11" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="13">
+        <v>5</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="18"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" s="13">
+        <v>8388608</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="13">
+        <v>5</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="13">
+        <v>5</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="13">
+        <v>500</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="13">
+        <v>31</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="13">
+        <v>6</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="13">
+        <v>5</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="13">
+        <v>1</v>
+      </c>
+      <c r="F28" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" s="13">
+        <v>10</v>
+      </c>
+      <c r="F29" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F31" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F35" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="4"/>
+      <c r="E36" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G37" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G39" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G40" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F41" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G41" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G42" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G43" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="14">
+        <v>30</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G44" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="14">
+        <v>10</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G45" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="14">
+        <v>30</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G46" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" s="13">
+        <v>20</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G47" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B48" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C48" s="44" t="s">
         <v>197</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="16" t="s">
+      <c r="D48" s="41"/>
+      <c r="E48" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="F12" s="29" t="s">
+      <c r="F48" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G48" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H48" s="43" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B49" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C49" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D49" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E49" s="16">
         <v>30</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F49" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G49" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H49" s="19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E16" s="15">
-        <v>10</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E20" s="15">
-        <v>5</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E21" s="15">
-        <v>5</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E22" s="15">
-        <v>5</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="H22" s="20"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="15">
-        <v>0</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="H23" s="20"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E24" s="15">
-        <v>8388608</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="20"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="15">
-        <v>5</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E26" s="15">
-        <v>5</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E27" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E28" s="15">
-        <v>500</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="15">
-        <v>31</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="G29" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="15">
-        <v>6</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="15">
-        <v>5</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H32" s="20"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="20"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="20"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G35" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H35" s="20"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G36" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H36" s="20"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G37" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H37" s="20"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H38" s="20"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="5"/>
-      <c r="E39" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H39" s="20"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="5"/>
-      <c r="E40" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H40" s="20"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H41" s="20"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H42" s="20"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="5"/>
-      <c r="E43" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G43" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H43" s="20"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="F44" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G44" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H44" s="20"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" s="5"/>
-      <c r="E45" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="F45" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G45" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H45" s="20"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H46" s="20"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="F47" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="G47" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="H47" s="20"/>
-    </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F48" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="G48" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="H48" s="21"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:H33">
-    <sortState ref="A2:H48">
-      <sortCondition ref="F1:F33"/>
+  <autoFilter ref="A1:H49">
+    <sortState ref="A2:H49">
+      <sortCondition sortBy="cellColor" ref="G1:G49" dxfId="1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G2:G48">
+  <conditionalFormatting sqref="G2:G49">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2773,7 +2988,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2783,10 +2998,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="38"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2829,10 +3044,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="38"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
